--- a/LOGS/f73f0ea6-6bc6-4a2e-a2c0-3d2005b3313e/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
+++ b/LOGS/f73f0ea6-6bc6-4a2e-a2c0-3d2005b3313e/main_page_service_output/notes_transformed_standard_cropped_df.xlsx
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="154">
   <si>
     <t>rows</t>
   </si>
@@ -54,6 +54,9 @@
     <t>value</t>
   </si>
   <si>
+    <t>Note</t>
+  </si>
+  <si>
     <t>None Cash and bank balances</t>
   </si>
   <si>
@@ -63,6 +66,9 @@
     <t>31/03/22 $</t>
   </si>
   <si>
+    <t>16</t>
+  </si>
+  <si>
     <t>None Trade receivables</t>
   </si>
   <si>
@@ -87,6 +93,9 @@
     <t>None Balance at the end of the year</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>None Raw materials (at lower of cost and netrealisable value)</t>
   </si>
   <si>
@@ -96,12 +105,18 @@
     <t>None Finished goods (at lower of cost and net realisable value)</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
     <t>None Sales to Champion Flour Milling</t>
   </si>
   <si>
     <t>$</t>
   </si>
   <si>
+    <t>22</t>
+  </si>
+  <si>
     <t>Loans from/(to) related parties Champion Flour Milling</t>
   </si>
   <si>
@@ -159,6 +174,9 @@
     <t>31/03/23</t>
   </si>
   <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>None Prepayments</t>
   </si>
   <si>
@@ -171,6 +189,9 @@
     <t>None Claims (payable/receivable</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
     <t>None Balance at 31 March 2021</t>
   </si>
   <si>
@@ -210,6 +231,9 @@
     <t>Property Total $</t>
   </si>
   <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>None Cost</t>
   </si>
   <si>
@@ -282,6 +306,9 @@
     <t>Total $</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>Year ended 31 March 2022 2022 Opening net book amount</t>
   </si>
   <si>
@@ -291,7 +318,52 @@
     <t>Year ended 31 March 2023 2022 Opening net book amount</t>
   </si>
   <si>
-    <t>Year ended 31 March 2023 Impairment charge</t>
+    <t>Year ended 31 March 2023 2022 Impairment charge</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>None Current income tax</t>
+  </si>
+  <si>
+    <t>None provision</t>
+  </si>
+  <si>
+    <t>None provision Relating to origination and reversal of temporary differences Prior year under/over</t>
+  </si>
+  <si>
+    <t>None 2023 loss</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>None Accounting profit/(loss) before tax Accounting profit/(loss) before tax nan</t>
+  </si>
+  <si>
+    <t>None At Australian statutory income tax rate at 30% At Australian statutory income tax rate at 30% At Australian statutory income tax rate at 30%</t>
+  </si>
+  <si>
+    <t>None Non-deductible impairment losses Non-deductible impairment losses nan</t>
+  </si>
+  <si>
+    <t>None R&amp;D tax incentive R&amp;D tax incentive nan</t>
+  </si>
+  <si>
+    <t>None Other non-deductible expenses for tax purposes Other non-deductible expenses for tax purposes Other non-deductible expenses for tax purposes</t>
+  </si>
+  <si>
+    <t>None Prior year under/over provision Prior year under/over provision nan</t>
+  </si>
+  <si>
+    <t>None Tax losses not recognised Tax losses not recognised nan</t>
+  </si>
+  <si>
+    <t>None Other adjustments Other adjustments nan</t>
+  </si>
+  <si>
+    <t>Income tax expense reported in the statement of profit or loss nan nan</t>
   </si>
   <si>
     <t>None Deferred tax assets nan</t>
@@ -315,6 +387,9 @@
     <t>None Deferred income non-current</t>
   </si>
   <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>None Non-current</t>
   </si>
   <si>
@@ -357,6 +432,9 @@
     <t>Employee provision $</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>None Committed facilities (i)</t>
   </si>
   <si>
@@ -369,6 +447,9 @@
     <t>Drawn $</t>
   </si>
   <si>
+    <t>17</t>
+  </si>
+  <si>
     <t>None Working capital facility</t>
   </si>
   <si>
@@ -384,7 +465,43 @@
     <t>Share capital $</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
     <t>None Foreign currency translation reserve</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>None 5.1 Depreciation of property, plant and equipment</t>
+  </si>
+  <si>
+    <t>None 5.2 Depreciation of right-of-use assets</t>
+  </si>
+  <si>
+    <t>None 5.3 Amortisation of other intangibles</t>
+  </si>
+  <si>
+    <t>None incurred</t>
+  </si>
+  <si>
+    <t>None Expenses relating to short-term leases</t>
+  </si>
+  <si>
+    <t>None Interest on external debt</t>
+  </si>
+  <si>
+    <t>None Interest on finance leases</t>
+  </si>
+  <si>
+    <t>None 2023 Total finance expense</t>
+  </si>
+  <si>
+    <t>Year ended 31/03/22 $</t>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -742,13 +859,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -761,13 +878,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -775,19 +895,25 @@
       <c r="D2">
         <v>18794995</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>24587459</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -797,13 +923,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -816,13 +942,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -830,13 +959,16 @@
       <c r="D2">
         <v>264241959</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -844,13 +976,16 @@
       <c r="D3">
         <v>-91346808</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -858,13 +993,16 @@
       <c r="D4">
         <v>172895151</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -872,13 +1010,16 @@
       <c r="D5">
         <v>245767010</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -886,19 +1027,25 @@
       <c r="D6">
         <v>-76218895</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
       </c>
       <c r="D7">
         <v>169548115</v>
+      </c>
+      <c r="E7" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -908,13 +1055,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D64"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -927,13 +1074,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -941,13 +1091,16 @@
       <c r="D2">
         <v>347763811</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -955,13 +1108,16 @@
       <c r="D3">
         <v>243347</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -969,13 +1125,16 @@
       <c r="D4">
         <v>4099779</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -983,13 +1142,16 @@
       <c r="D5">
         <v>352106937</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -997,13 +1159,16 @@
       <c r="D6">
         <v>-41019045</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -1011,13 +1176,16 @@
       <c r="D7">
         <v>-14282502</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -1025,13 +1193,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B9" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -1039,13 +1210,16 @@
       <c r="D9">
         <v>-55301547</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -1053,13 +1227,16 @@
       <c r="D10">
         <v>296805390</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -1067,13 +1244,16 @@
       <c r="D11">
         <v>352106937</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B12" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -1081,13 +1261,16 @@
       <c r="D12">
         <v>2894075</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B13" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -1095,13 +1278,16 @@
       <c r="D13">
         <v>352332031</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -1109,13 +1295,16 @@
       <c r="D14">
         <v>-55301547</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -1123,13 +1312,16 @@
       <c r="D15">
         <v>-11421951</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -1137,13 +1329,16 @@
       <c r="D16">
         <v>-66723498</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -1151,13 +1346,16 @@
       <c r="D17">
         <v>285608533</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -1165,13 +1363,16 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B19" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -1179,13 +1380,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -1193,13 +1397,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B21" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -1207,13 +1414,16 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B22" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -1221,13 +1431,16 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B23" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -1235,13 +1448,16 @@
       <c r="D23">
         <v>3532892</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -1249,13 +1465,16 @@
       <c r="D24">
         <v>4342173</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B25" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -1263,13 +1482,16 @@
       <c r="D25">
         <v>-439677</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B26" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -1277,13 +1499,16 @@
       <c r="D26">
         <v>7435388</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B27" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -1291,13 +1516,16 @@
       <c r="D27">
         <v>-2354860</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B28" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -1305,13 +1533,16 @@
       <c r="D28">
         <v>-1354961</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -1319,13 +1550,16 @@
       <c r="D29">
         <v>888445</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -1333,13 +1567,16 @@
       <c r="D30">
         <v>-2821376</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B31" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -1347,13 +1584,16 @@
       <c r="D31">
         <v>4614012</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B32" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -1361,13 +1601,16 @@
       <c r="D32">
         <v>7435388</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B33" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -1375,13 +1618,16 @@
       <c r="D33">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -1389,13 +1635,16 @@
       <c r="D34">
         <v>10104369</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C35">
         <v>2022</v>
@@ -1403,13 +1652,16 @@
       <c r="D35">
         <v>-2821376</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -1417,13 +1669,16 @@
       <c r="D36">
         <v>-4742600</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -1431,13 +1686,16 @@
       <c r="D37">
         <v>-7563976</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -1445,13 +1703,16 @@
       <c r="D38">
         <v>2540393</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -1459,13 +1720,16 @@
       <c r="D39">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -1473,13 +1737,16 @@
       <c r="D40">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B41" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -1487,13 +1754,16 @@
       <c r="D41">
         <v>16164551</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -1501,13 +1771,16 @@
       <c r="D42">
         <v>29871720</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -1515,13 +1788,16 @@
       <c r="D43">
         <v>2069</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -1529,13 +1805,16 @@
       <c r="D44">
         <v>351296703</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -1543,13 +1822,16 @@
       <c r="D45">
         <v>4585520</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -1557,13 +1839,16 @@
       <c r="D46">
         <v>3660102</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>2022</v>
@@ -1571,13 +1856,16 @@
       <c r="D47">
         <v>359542325</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -1585,13 +1873,16 @@
       <c r="D48">
         <v>-43373905</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -1599,13 +1890,16 @@
       <c r="D49">
         <v>-15637463</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -1613,13 +1907,16 @@
       <c r="D50">
         <v>888445</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C51">
         <v>2022</v>
@@ -1627,13 +1924,16 @@
       <c r="D51">
         <v>-58122923</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
       <c r="A52" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="B52" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C52">
         <v>2022</v>
@@ -1641,13 +1941,16 @@
       <c r="D52">
         <v>301419402</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
       <c r="A53" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="B53" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C53">
         <v>2023</v>
@@ -1655,13 +1958,16 @@
       <c r="D53">
         <v>359542325</v>
       </c>
-    </row>
-    <row r="54" spans="1:4">
+      <c r="E53" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
       <c r="A54" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="B54" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C54">
         <v>2023</v>
@@ -1669,13 +1975,16 @@
       <c r="D54">
         <v>2894075</v>
       </c>
-    </row>
-    <row r="55" spans="1:4">
+      <c r="E54" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
       <c r="A55" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C55">
         <v>2023</v>
@@ -1683,13 +1992,16 @@
       <c r="D55">
         <v>362436400</v>
       </c>
-    </row>
-    <row r="56" spans="1:4">
+      <c r="E55" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
       <c r="A56" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C56">
         <v>2022</v>
@@ -1697,13 +2009,16 @@
       <c r="D56">
         <v>-58122923</v>
       </c>
-    </row>
-    <row r="57" spans="1:4">
+      <c r="E56" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
       <c r="A57" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B57" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C57">
         <v>2023</v>
@@ -1711,13 +2026,16 @@
       <c r="D57">
         <v>-16164551</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C58">
         <v>2023</v>
@@ -1725,13 +2043,16 @@
       <c r="D58">
         <v>-74287474</v>
       </c>
-    </row>
-    <row r="59" spans="1:4">
+      <c r="E58" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="B59" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C59">
         <v>2023</v>
@@ -1739,13 +2060,16 @@
       <c r="D59">
         <v>288148926</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
+      <c r="E59" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B60" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C60">
         <v>2023</v>
@@ -1753,13 +2077,16 @@
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4">
+      <c r="E60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B61" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C61">
         <v>2023</v>
@@ -1767,13 +2094,16 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4">
+      <c r="E61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B62" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C62">
         <v>2023</v>
@@ -1781,13 +2111,16 @@
       <c r="D62">
         <v>15637463</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B63" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C63">
         <v>2023</v>
@@ -1795,19 +2128,25 @@
       <c r="D63">
         <v>29724852</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
+      <c r="E63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="B64" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C64">
         <v>2023</v>
       </c>
       <c r="D64">
         <v>23832</v>
+      </c>
+      <c r="E64" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -1817,13 +2156,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1836,13 +2175,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C2">
         <v>2022</v>
@@ -1850,13 +2192,16 @@
       <c r="D2">
         <v>156261261</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C3">
         <v>2022</v>
@@ -1864,13 +2209,16 @@
       <c r="D3">
         <v>156261261</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -1878,19 +2226,25 @@
       <c r="D4">
         <v>156261261</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>-156261261</v>
+      </c>
+      <c r="E5" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>
@@ -1912,37 +2266,444 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-3115828</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>-4040422</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>95</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>163471</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>3844054</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>-196368</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>-156830673</v>
+      </c>
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>47049202</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>-46878378</v>
+      </c>
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>459000</v>
+      </c>
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>-65069</v>
+      </c>
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>-761123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10">
+        <v>2023</v>
+      </c>
+      <c r="D10">
+        <v>-196368</v>
+      </c>
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11">
+        <v>2022</v>
+      </c>
+      <c r="D11">
+        <v>-4304263</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>100</v>
+      </c>
+      <c r="C12">
+        <v>2022</v>
+      </c>
+      <c r="D12">
+        <v>1291279</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="C13">
+        <v>2022</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14">
+        <v>2022</v>
+      </c>
+      <c r="D14">
+        <v>459000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>2022</v>
+      </c>
+      <c r="D15">
+        <v>-41765</v>
+      </c>
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="C16">
+        <v>2022</v>
+      </c>
+      <c r="D16">
+        <v>-38996</v>
+      </c>
+      <c r="E16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>105</v>
+      </c>
+      <c r="C17">
+        <v>2022</v>
+      </c>
+      <c r="D17">
+        <v>-70278</v>
+      </c>
+      <c r="E17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>106</v>
+      </c>
+      <c r="C18">
+        <v>2022</v>
+      </c>
+      <c r="D18">
+        <v>-5773</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="C19">
+        <v>2022</v>
+      </c>
+      <c r="D19">
+        <v>1593467</v>
+      </c>
+      <c r="E19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1955,13 +2716,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -1969,13 +2733,16 @@
       <c r="D2">
         <v>62131759</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -1983,13 +2750,16 @@
       <c r="D3">
         <v>62131759</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -1997,13 +2767,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2011,13 +2784,16 @@
       <c r="D5">
         <v>-1087265</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2025,13 +2801,16 @@
       <c r="D6">
         <v>1176708</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -2039,13 +2818,16 @@
       <c r="D7">
         <v>58287708</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2053,13 +2835,16 @@
       <c r="D8">
         <v>58287708</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -2067,13 +2852,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -2081,19 +2869,25 @@
       <c r="D10">
         <v>27190304</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>8230186</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2115,13 +2909,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2134,13 +2928,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2148,13 +2945,16 @@
       <c r="D2">
         <v>3480225</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2162,13 +2962,16 @@
       <c r="D3">
         <v>87154123</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -2176,19 +2979,25 @@
       <c r="D4">
         <v>3555979</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>90706343</v>
+      </c>
+      <c r="E5" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2198,13 +3007,13 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D21"/>
+  <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2217,13 +3026,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2231,13 +3043,16 @@
       <c r="D2">
         <v>363180850</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2245,13 +3060,16 @@
       <c r="D3">
         <v>5911064</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2259,13 +3077,16 @@
       <c r="D4">
         <v>369091914</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -2273,13 +3094,16 @@
       <c r="D5">
         <v>2129337</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2287,13 +3111,16 @@
       <c r="D6">
         <v>1353300</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2301,13 +3128,16 @@
       <c r="D7">
         <v>-1353547</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -2315,13 +3145,16 @@
       <c r="D8">
         <v>-1217209</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2329,13 +3162,16 @@
       <c r="D9">
         <v>-542907</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2343,13 +3179,16 @@
       <c r="D10">
         <v>368722940</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2357,13 +3196,16 @@
       <c r="D11">
         <v>369091914</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12">
         <v>2022</v>
@@ -2371,13 +3213,16 @@
       <c r="D12">
         <v>363780138</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C13">
         <v>2022</v>
@@ -2385,13 +3230,16 @@
       <c r="D13">
         <v>5601638</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>2022</v>
@@ -2399,13 +3247,16 @@
       <c r="D14">
         <v>369381776</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>2022</v>
@@ -2413,13 +3264,16 @@
       <c r="D15">
         <v>2164369</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -2427,13 +3281,16 @@
       <c r="D16">
         <v>1396180</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2441,13 +3298,16 @@
       <c r="D17">
         <v>418787</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -2455,13 +3315,16 @@
       <c r="D18">
         <v>-1560483</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -2469,13 +3332,16 @@
       <c r="D19">
         <v>-1217209</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -2483,19 +3349,25 @@
       <c r="D20">
         <v>368180132</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>2022</v>
       </c>
       <c r="D21">
         <v>369381776</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -2505,13 +3377,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2524,203 +3396,260 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2">
         <v>130876669</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3">
         <v>-527910</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D4">
         <v>130348759</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7">
         <v>978429</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D8">
         <v>370848</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9">
         <v>-821367</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10">
         <v>527910</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
       </c>
       <c r="D11">
         <v>108900815</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D12">
         <v>-978429</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D13">
         <v>107922386</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D16">
         <v>723064</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B17" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D17">
         <v>462209</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D18">
         <v>-206844</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D19">
         <v>978429</v>
+      </c>
+      <c r="E19" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -2730,13 +3659,13 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2749,13 +3678,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -2763,13 +3695,16 @@
       <c r="D2">
         <v>1366931</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B3" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -2777,13 +3712,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -2791,13 +3729,16 @@
       <c r="D4">
         <v>-8987</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>2022</v>
@@ -2805,13 +3746,16 @@
       <c r="D5">
         <v>1357944</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -2819,13 +3763,16 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -2833,13 +3780,16 @@
       <c r="D7">
         <v>1357944</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -2847,13 +3797,16 @@
       <c r="D8">
         <v>1357944</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -2861,13 +3814,16 @@
       <c r="D9">
         <v>9511</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -2875,13 +3831,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B11" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -2889,13 +3848,16 @@
       <c r="D11">
         <v>1367455</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -2903,13 +3865,16 @@
       <c r="D12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -2917,13 +3882,16 @@
       <c r="D13">
         <v>1367455</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -2931,13 +3899,16 @@
       <c r="D14">
         <v>730348</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -2945,13 +3916,16 @@
       <c r="D15">
         <v>6706</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B16" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -2959,13 +3933,16 @@
       <c r="D16">
         <v>-468234</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -2973,13 +3950,16 @@
       <c r="D17">
         <v>268820</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -2987,13 +3967,16 @@
       <c r="D18">
         <v>268820</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -3001,13 +3984,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B20" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -3015,13 +4001,16 @@
       <c r="D20">
         <v>268820</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -3029,13 +4018,16 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B22" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -3043,13 +4035,16 @@
       <c r="D22">
         <v>-4112</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -3057,13 +4052,16 @@
       <c r="D23">
         <v>264708</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -3071,13 +4069,16 @@
       <c r="D24">
         <v>264708</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>128</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -3085,13 +4086,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C26">
         <v>2023</v>
@@ -3099,13 +4103,16 @@
       <c r="D26">
         <v>12312003</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B27" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C27">
         <v>2023</v>
@@ -3113,13 +4120,16 @@
       <c r="D27">
         <v>4284051</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -3127,13 +4137,16 @@
       <c r="D28">
         <v>-3380536</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -3141,13 +4154,16 @@
       <c r="D29">
         <v>13215518</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -3155,13 +4171,16 @@
       <c r="D30">
         <v>10252108</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B31" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -3169,13 +4188,16 @@
       <c r="D31">
         <v>2963410</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B32" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -3183,13 +4205,16 @@
       <c r="D32">
         <v>13215518</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -3197,13 +4222,16 @@
       <c r="D33">
         <v>7172409</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B34" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -3211,13 +4239,16 @@
       <c r="D34">
         <v>-6248731</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -3225,13 +4256,16 @@
       <c r="D35">
         <v>14139196</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C36">
         <v>2023</v>
@@ -3239,13 +4273,16 @@
       <c r="D36">
         <v>11175786</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B37" t="s">
-        <v>104</v>
+        <v>129</v>
       </c>
       <c r="C37">
         <v>2023</v>
@@ -3253,13 +4290,16 @@
       <c r="D37">
         <v>2963410</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -3267,13 +4307,16 @@
       <c r="D38">
         <v>14409282</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -3281,13 +4324,16 @@
       <c r="D39">
         <v>4290757</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -3295,13 +4341,16 @@
       <c r="D40">
         <v>-3857757</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B41" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C41">
         <v>2022</v>
@@ -3309,13 +4358,16 @@
       <c r="D41">
         <v>14842282</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B42" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -3323,13 +4375,16 @@
       <c r="D42">
         <v>10520928</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B43" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -3337,13 +4392,16 @@
       <c r="D43">
         <v>4321354</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B44" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C44">
         <v>2022</v>
@@ -3351,13 +4409,16 @@
       <c r="D44">
         <v>14842282</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -3365,13 +4426,16 @@
       <c r="D45">
         <v>7181920</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="B46" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C46">
         <v>2023</v>
@@ -3379,13 +4443,16 @@
       <c r="D46">
         <v>-6252843</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="B47" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>2023</v>
@@ -3393,13 +4460,16 @@
       <c r="D47">
         <v>15771359</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="B48" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -3407,19 +4477,25 @@
       <c r="D48">
         <v>11440494</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C49">
         <v>2023</v>
       </c>
       <c r="D49">
         <v>4330865</v>
+      </c>
+      <c r="E49" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -3429,13 +4505,13 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3448,13 +4524,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B2" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3462,13 +4541,16 @@
       <c r="D2">
         <v>85232800</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3476,13 +4558,16 @@
       <c r="D3">
         <v>10500000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3490,13 +4575,16 @@
       <c r="D4">
         <v>95732800</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3504,13 +4592,16 @@
       <c r="D5">
         <v>100000000</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>132</v>
       </c>
       <c r="B6" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -3518,19 +4609,25 @@
       <c r="D6">
         <v>50000000</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C7">
         <v>2023</v>
       </c>
       <c r="D7">
         <v>150000000</v>
+      </c>
+      <c r="E7" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3552,13 +4649,13 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3571,13 +4668,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3585,19 +4685,25 @@
       <c r="D2">
         <v>95732800</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>21470908</v>
+      </c>
+      <c r="E3" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
@@ -3619,13 +4725,13 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3638,13 +4744,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3652,13 +4761,16 @@
       <c r="D2">
         <v>684240</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B3" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3666,13 +4778,16 @@
       <c r="D3">
         <v>684240</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3680,13 +4795,16 @@
       <c r="D4">
         <v>569171007</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B5" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3694,13 +4812,16 @@
       <c r="D5">
         <v>569171007</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B6" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3708,13 +4829,16 @@
       <c r="D6">
         <v>684240</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>139</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3722,13 +4846,16 @@
       <c r="D7">
         <v>684240</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3736,19 +4863,25 @@
       <c r="D8">
         <v>569171007</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s">
-        <v>113</v>
+        <v>140</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>569171007</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -3758,13 +4891,13 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3777,13 +4910,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3791,19 +4927,25 @@
       <c r="D2">
         <v>242235</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>338981</v>
+      </c>
+      <c r="E3" t="s">
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -3813,25 +4955,179 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C2">
+        <v>2023</v>
+      </c>
+      <c r="D2">
+        <v>14375659</v>
+      </c>
+      <c r="E2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C3">
+        <v>2023</v>
+      </c>
+      <c r="D3">
+        <v>16164551</v>
+      </c>
+      <c r="E3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
+      </c>
+      <c r="C4">
+        <v>2023</v>
+      </c>
+      <c r="D4">
+        <v>535333</v>
+      </c>
+      <c r="E4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5">
+        <v>2023</v>
+      </c>
+      <c r="D5">
+        <v>10656323</v>
+      </c>
+      <c r="E5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>148</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6">
+        <v>2023</v>
+      </c>
+      <c r="D6">
+        <v>5.5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>149</v>
+      </c>
+      <c r="B7" t="s">
+        <v>152</v>
+      </c>
+      <c r="C7">
+        <v>2023</v>
+      </c>
+      <c r="D7">
+        <v>1944262</v>
+      </c>
+      <c r="E7" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8">
+        <v>2023</v>
+      </c>
+      <c r="D8">
+        <v>29871720</v>
+      </c>
+      <c r="E8" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>151</v>
+      </c>
+      <c r="B9" t="s">
+        <v>152</v>
+      </c>
+      <c r="C9">
+        <v>2023</v>
+      </c>
+      <c r="D9">
+        <v>31815982</v>
+      </c>
+      <c r="E9" t="s">
+        <v>153</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3844,13 +5140,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3858,13 +5157,16 @@
       <c r="D2">
         <v>170475593</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -3872,13 +5174,16 @@
       <c r="D3">
         <v>14024693</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -3886,13 +5191,16 @@
       <c r="D4">
         <v>61830694</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -3900,13 +5208,16 @@
       <c r="D5">
         <v>246330980</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -3914,13 +5225,16 @@
       <c r="D6">
         <v>125030141</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -3928,13 +5242,16 @@
       <c r="D7">
         <v>14209354</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -3942,19 +5259,25 @@
       <c r="D8">
         <v>36007385</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
       </c>
       <c r="D9">
         <v>175246880</v>
+      </c>
+      <c r="E9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -3964,13 +5287,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3983,13 +5306,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -3997,19 +5323,25 @@
       <c r="D2">
         <v>3080750</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>2752814</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4019,13 +5351,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4038,13 +5370,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4052,13 +5387,16 @@
       <c r="D2">
         <v>11232800</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4066,13 +5404,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>2022</v>
@@ -4080,19 +5421,25 @@
       <c r="D4">
         <v>6970908</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C5">
         <v>2022</v>
       </c>
       <c r="D5">
         <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4102,13 +5449,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4121,13 +5468,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>19</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4135,19 +5485,25 @@
       <c r="D2">
         <v>3575160</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" t="s">
         <v>23</v>
-      </c>
-      <c r="B3" t="s">
-        <v>19</v>
       </c>
       <c r="C3">
         <v>2022</v>
       </c>
       <c r="D3">
         <v>2077945</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -4157,13 +5513,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4176,13 +5532,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4190,13 +5549,16 @@
       <c r="D2">
         <v>984744</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4204,13 +5566,16 @@
       <c r="D3">
         <v>1213777</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4218,13 +5583,16 @@
       <c r="D4">
         <v>2198521</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4232,13 +5600,16 @@
       <c r="D5">
         <v>939008</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4246,13 +5617,16 @@
       <c r="D6">
         <v>1170022</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C7">
         <v>2023</v>
@@ -4260,13 +5634,16 @@
       <c r="D7">
         <v>2109030</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4274,13 +5651,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4288,13 +5668,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4302,13 +5685,16 @@
       <c r="D10">
         <v>1213777</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4316,13 +5702,16 @@
       <c r="D11">
         <v>813282</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -4330,13 +5719,16 @@
       <c r="D12">
         <v>171462</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -4344,13 +5736,16 @@
       <c r="D13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -4358,13 +5753,16 @@
       <c r="D14">
         <v>2198521</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -4372,13 +5770,16 @@
       <c r="D15">
         <v>-89491</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C16">
         <v>2023</v>
@@ -4386,13 +5787,16 @@
       <c r="D16">
         <v>2109030</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C17">
         <v>2023</v>
@@ -4400,13 +5804,16 @@
       <c r="D17">
         <v>2109030</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C18">
         <v>2022</v>
@@ -4414,13 +5821,16 @@
       <c r="D18">
         <v>2198521</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C19">
         <v>2022</v>
@@ -4428,13 +5838,16 @@
       <c r="D19">
         <v>1176119</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C20">
         <v>2022</v>
@@ -4442,13 +5855,16 @@
       <c r="D20">
         <v>3374640</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B21" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C21">
         <v>2022</v>
@@ -4456,13 +5872,16 @@
       <c r="D21">
         <v>2150749</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C22">
         <v>2022</v>
@@ -4470,13 +5889,16 @@
       <c r="D22">
         <v>1111203</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B23" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>2022</v>
@@ -4484,13 +5906,16 @@
       <c r="D23">
         <v>3261952</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C24">
         <v>2022</v>
@@ -4498,13 +5923,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C25">
         <v>2022</v>
@@ -4512,13 +5940,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B26" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -4526,13 +5957,16 @@
       <c r="D26">
         <v>1177744</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B27" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -4540,13 +5974,16 @@
       <c r="D27">
         <v>1213777</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C28">
         <v>2022</v>
@@ -4554,13 +5991,16 @@
       <c r="D28">
         <v>813282</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>2022</v>
@@ -4568,13 +6008,16 @@
       <c r="D29">
         <v>171462</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C30">
         <v>2022</v>
@@ -4582,13 +6025,16 @@
       <c r="D30">
         <v>3376265</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C31">
         <v>2022</v>
@@ -4596,13 +6042,16 @@
       <c r="D31">
         <v>-114313</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B32" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C32">
         <v>2022</v>
@@ -4610,19 +6059,25 @@
       <c r="D32">
         <v>3261952</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B33" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C33">
         <v>2022</v>
       </c>
       <c r="D33">
         <v>3261952</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -4632,13 +6087,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4651,13 +6106,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4665,13 +6123,16 @@
       <c r="D2">
         <v>16023217</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4679,13 +6140,16 @@
       <c r="D3">
         <v>13981920</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4693,13 +6157,16 @@
       <c r="D4">
         <v>4170767</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4707,13 +6174,16 @@
       <c r="D5">
         <v>-112412</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C6">
         <v>2023</v>
@@ -4721,13 +6191,16 @@
       <c r="D6">
         <v>34063492</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -4735,13 +6208,16 @@
       <c r="D7">
         <v>4924845</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>2022</v>
@@ -4749,13 +6225,16 @@
       <c r="D8">
         <v>7155123</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C9">
         <v>2022</v>
@@ -4763,13 +6242,16 @@
       <c r="D9">
         <v>4162426</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C10">
         <v>2022</v>
@@ -4777,19 +6259,25 @@
       <c r="D10">
         <v>111489</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>2022</v>
       </c>
       <c r="D11">
         <v>16353883</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -4799,13 +6287,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4818,13 +6306,16 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C2">
         <v>2023</v>
@@ -4832,13 +6323,16 @@
       <c r="D2">
         <v>3548167</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C3">
         <v>2023</v>
@@ -4846,13 +6340,16 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C4">
         <v>2023</v>
@@ -4860,13 +6357,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C5">
         <v>2023</v>
@@ -4874,13 +6374,16 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B6" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C6">
         <v>2022</v>
@@ -4888,13 +6391,16 @@
       <c r="D6">
         <v>3548167</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C7">
         <v>2022</v>
@@ -4902,13 +6408,16 @@
       <c r="D7">
         <v>3548167</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C8">
         <v>2023</v>
@@ -4916,13 +6425,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C9">
         <v>2023</v>
@@ -4930,13 +6442,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C10">
         <v>2023</v>
@@ -4944,13 +6459,16 @@
       <c r="D10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>2023</v>
@@ -4958,13 +6476,16 @@
       <c r="D11">
         <v>3548167</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>2023</v>
@@ -4972,13 +6493,16 @@
       <c r="D12">
         <v>12018683</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C13">
         <v>2023</v>
@@ -4986,13 +6510,16 @@
       <c r="D13">
         <v>2926146</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C14">
         <v>2023</v>
@@ -5000,13 +6527,16 @@
       <c r="D14">
         <v>-620737</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>2023</v>
@@ -5014,13 +6544,16 @@
       <c r="D15">
         <v>-318180</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C16">
         <v>2022</v>
@@ -5028,13 +6561,16 @@
       <c r="D16">
         <v>14005912</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C17">
         <v>2022</v>
@@ -5042,13 +6578,16 @@
       <c r="D17">
         <v>14005912</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C18">
         <v>2023</v>
@@ -5056,13 +6595,16 @@
       <c r="D18">
         <v>-60</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C19">
         <v>2023</v>
@@ -5070,13 +6612,16 @@
       <c r="D19">
         <v>-931698</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C20">
         <v>2023</v>
@@ -5084,13 +6629,16 @@
       <c r="D20">
         <v>318181</v>
       </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="E20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C21">
         <v>2023</v>
@@ -5098,13 +6646,16 @@
       <c r="D21">
         <v>13392335</v>
       </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="E21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C22">
         <v>2023</v>
@@ -5112,13 +6663,16 @@
       <c r="D22">
         <v>30639303</v>
       </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="E22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C23">
         <v>2023</v>
@@ -5126,13 +6680,16 @@
       <c r="D23">
         <v>-8893740</v>
       </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="E23" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C24">
         <v>2023</v>
@@ -5140,13 +6697,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="E24" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C25">
         <v>2023</v>
@@ -5154,13 +6714,16 @@
       <c r="D25">
         <v>2428678</v>
       </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="E25" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C26">
         <v>2022</v>
@@ -5168,13 +6731,16 @@
       <c r="D26">
         <v>24174241</v>
       </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="E26" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B27" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C27">
         <v>2022</v>
@@ -5182,13 +6748,16 @@
       <c r="D27">
         <v>24174241</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B28" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>2023</v>
@@ -5196,13 +6765,16 @@
       <c r="D28">
         <v>-118348</v>
       </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C29">
         <v>2023</v>
@@ -5210,13 +6782,16 @@
       <c r="D29">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="E29" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C30">
         <v>2023</v>
@@ -5224,13 +6799,16 @@
       <c r="D30">
         <v>-17584747</v>
       </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="E30" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="C31">
         <v>2023</v>
@@ -5238,13 +6816,16 @@
       <c r="D31">
         <v>6471146</v>
       </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="E31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B32" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C32">
         <v>2023</v>
@@ -5252,13 +6833,16 @@
       <c r="D32">
         <v>98880984</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="E32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B33" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C33">
         <v>2023</v>
@@ -5266,13 +6850,16 @@
       <c r="D33">
         <v>43500698</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B34" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C34">
         <v>2023</v>
@@ -5280,13 +6867,16 @@
       <c r="D34">
         <v>-12451389</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="E34" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B35" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C35">
         <v>2023</v>
@@ -5294,13 +6884,16 @@
       <c r="D35">
         <v>-2110498</v>
       </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="E35" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B36" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C36">
         <v>2022</v>
@@ -5308,13 +6901,16 @@
       <c r="D36">
         <v>127819795</v>
       </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="E36" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B37" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C37">
         <v>2022</v>
@@ -5322,13 +6918,16 @@
       <c r="D37">
         <v>127819795</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
       <c r="A38" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B38" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C38">
         <v>2023</v>
@@ -5336,13 +6935,16 @@
       <c r="D38">
         <v>17841103</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
       <c r="A39" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B39" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C39">
         <v>2023</v>
@@ -5350,13 +6952,16 @@
       <c r="D39">
         <v>-13443961</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="E39" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
       <c r="A40" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B40" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>2023</v>
@@ -5364,13 +6969,16 @@
       <c r="D40">
         <v>17266566</v>
       </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
       <c r="A41" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="C41">
         <v>2023</v>
@@ -5378,13 +6986,16 @@
       <c r="D41">
         <v>149483503</v>
       </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="E41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="B42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>2023</v>
@@ -5392,13 +7003,16 @@
       <c r="D42">
         <v>145087137</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C43">
         <v>2023</v>
@@ -5406,13 +7020,16 @@
       <c r="D43">
         <v>37533104</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="E43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>2023</v>
@@ -5420,13 +7037,16 @@
       <c r="D44">
         <v>-13072126</v>
       </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="E44" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C45">
         <v>2023</v>
@@ -5434,13 +7054,16 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C46">
         <v>2022</v>
@@ -5448,13 +7071,16 @@
       <c r="D46">
         <v>169548115</v>
       </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="E46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C47">
         <v>2022</v>
@@ -5462,13 +7088,16 @@
       <c r="D47">
         <v>169548115</v>
       </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C48">
         <v>2023</v>
@@ -5476,13 +7105,16 @@
       <c r="D48">
         <v>17722695</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="E48" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C49">
         <v>2023</v>
@@ -5490,13 +7122,16 @@
       <c r="D49">
         <v>-14375659</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C50">
         <v>2023</v>
@@ -5504,19 +7139,25 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="E50" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C51">
         <v>2023</v>
       </c>
       <c r="D51">
         <v>172895151</v>
+      </c>
+      <c r="E51" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
